--- a/csv/sources/book_details.xlsx
+++ b/csv/sources/book_details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\Desktop\hyp-project\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\Desktop\hyp-project\csv\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B575C82F-6B40-4A98-A7CC-66D4CFD422A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD37FE8-3919-438A-933E-EEAB1178D97A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{085F5C93-9E1D-40DC-818E-01B236129DE1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="57">
   <si>
     <t>book_id</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t xml:space="preserve">15.20 </t>
+  </si>
+  <si>
+    <t>11.80</t>
+  </si>
+  <si>
+    <t>20.37</t>
+  </si>
+  <si>
+    <t>31.15</t>
+  </si>
+  <si>
+    <t>12.30</t>
   </si>
 </sst>
 </file>
@@ -199,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,9 +222,16 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -225,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,11 +252,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,6 +284,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -564,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DCE572-95BA-486A-9DC7-0F3E62A2B3B5}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E2" s="7">
         <v>1234567891011</v>
@@ -624,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>20000</v>
       </c>
       <c r="E3" s="7">
         <v>1234567891012</v>
@@ -641,7 +678,7 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>20000</v>
       </c>
       <c r="E4" s="7">
         <v>1234567891013</v>
@@ -658,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E5" s="7">
         <v>1234567891014</v>
@@ -675,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>20000</v>
       </c>
       <c r="E6" s="7">
         <v>1234567891015</v>
@@ -692,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E7" s="7">
         <v>1234567891016</v>
@@ -709,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E8" s="7">
         <v>1234567891017</v>
@@ -726,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>20000</v>
       </c>
       <c r="E9" s="7">
         <v>1234567891018</v>
@@ -743,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E10" s="7">
         <v>1234567891019</v>
@@ -760,7 +797,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>20000</v>
       </c>
       <c r="E11" s="7">
         <v>1234567891020</v>
@@ -777,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>20000</v>
       </c>
       <c r="E12" s="7">
         <v>1234567891021</v>
@@ -794,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>20000</v>
       </c>
       <c r="E13" s="7">
         <v>1234567891022</v>
@@ -811,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>20000</v>
       </c>
       <c r="E14" s="7">
         <v>1234567891023</v>
@@ -828,7 +865,7 @@
         <v>48</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E15" s="7">
         <v>1234567891024</v>
@@ -845,7 +882,7 @@
         <v>17</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>20000</v>
       </c>
       <c r="E16" s="7">
         <v>1234567891025</v>
@@ -862,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>20000</v>
       </c>
       <c r="E17" s="7">
         <v>1234567891026</v>
@@ -879,7 +916,7 @@
         <v>19</v>
       </c>
       <c r="D18">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E18" s="7">
         <v>1234567891027</v>
@@ -896,7 +933,7 @@
         <v>20</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>20000</v>
       </c>
       <c r="E19" s="7">
         <v>1234567891029</v>
@@ -913,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>20000</v>
       </c>
       <c r="E20" s="7">
         <v>1234567891031</v>
@@ -930,7 +967,7 @@
         <v>47</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>20000</v>
       </c>
       <c r="E21" s="7">
         <v>1234567891032</v>
@@ -947,7 +984,7 @@
         <v>22</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E22" s="7">
         <v>1234567891033</v>
@@ -964,7 +1001,7 @@
         <v>23</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>20000</v>
       </c>
       <c r="E23" s="7">
         <v>1234567891034</v>
@@ -981,7 +1018,7 @@
         <v>24</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E24" s="7">
         <v>1234567891036</v>
@@ -998,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>20000</v>
       </c>
       <c r="E25" s="7">
         <v>1234567891037</v>
@@ -1015,7 +1052,7 @@
         <v>26</v>
       </c>
       <c r="D26">
-        <v>39</v>
+        <v>20000</v>
       </c>
       <c r="E26" s="7">
         <v>1234567891038</v>
@@ -1032,7 +1069,7 @@
         <v>27</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>20000</v>
       </c>
       <c r="E27" s="7">
         <v>1234567891039</v>
@@ -1049,7 +1086,7 @@
         <v>28</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>20000</v>
       </c>
       <c r="E28" s="7">
         <v>1234567891040</v>
@@ -1066,7 +1103,7 @@
         <v>29</v>
       </c>
       <c r="D29">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E29" s="7">
         <v>1234567891041</v>
@@ -1083,7 +1120,7 @@
         <v>30</v>
       </c>
       <c r="D30">
-        <v>43</v>
+        <v>20000</v>
       </c>
       <c r="E30" s="7">
         <v>1234567891042</v>
@@ -1100,7 +1137,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E31" s="7">
         <v>1234567891043</v>
@@ -1117,7 +1154,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>45</v>
+        <v>20000</v>
       </c>
       <c r="E32" s="7">
         <v>1234567891044</v>
@@ -1134,7 +1171,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>46</v>
+        <v>20000</v>
       </c>
       <c r="E33" s="7">
         <v>1234567891045</v>
@@ -1151,7 +1188,7 @@
         <v>29</v>
       </c>
       <c r="D34">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E34" s="7">
         <v>1234567891046</v>
@@ -1168,7 +1205,7 @@
         <v>33</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E35" s="7">
         <v>1234567891047</v>
@@ -1185,7 +1222,7 @@
         <v>50</v>
       </c>
       <c r="D36">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E36" s="7">
         <v>1234567891048</v>
@@ -1202,7 +1239,7 @@
         <v>29</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>20000</v>
       </c>
       <c r="E37" s="7">
         <v>1234567891049</v>
@@ -1219,7 +1256,7 @@
         <v>33</v>
       </c>
       <c r="D38">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E38" s="7">
         <v>1234567891050</v>
@@ -1236,7 +1273,7 @@
         <v>34</v>
       </c>
       <c r="D39">
-        <v>52</v>
+        <v>20000</v>
       </c>
       <c r="E39" s="7">
         <v>1234567891051</v>
@@ -1253,7 +1290,7 @@
         <v>51</v>
       </c>
       <c r="D40">
-        <v>53</v>
+        <v>20000</v>
       </c>
       <c r="E40" s="7">
         <v>1234567891052</v>
@@ -1270,7 +1307,7 @@
         <v>35</v>
       </c>
       <c r="D41">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E41" s="7">
         <v>1234567891053</v>
@@ -1287,7 +1324,7 @@
         <v>36</v>
       </c>
       <c r="D42">
-        <v>55</v>
+        <v>20000</v>
       </c>
       <c r="E42" s="7">
         <v>1234567891054</v>
@@ -1304,7 +1341,7 @@
         <v>29</v>
       </c>
       <c r="D43">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E43" s="7">
         <v>1234567891055</v>
@@ -1321,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="D44">
-        <v>57</v>
+        <v>20000</v>
       </c>
       <c r="E44" s="7">
         <v>1234567891056</v>
@@ -1338,7 +1375,7 @@
         <v>38</v>
       </c>
       <c r="D45">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E45" s="7">
         <v>1234567891057</v>
@@ -1355,7 +1392,7 @@
         <v>39</v>
       </c>
       <c r="D46">
-        <v>59</v>
+        <v>20000</v>
       </c>
       <c r="E46" s="7">
         <v>1234567891058</v>
@@ -1372,7 +1409,7 @@
         <v>38</v>
       </c>
       <c r="D47">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E47" s="7">
         <v>1234567891059</v>
@@ -1389,7 +1426,7 @@
         <v>35</v>
       </c>
       <c r="D48">
-        <v>61</v>
+        <v>20000</v>
       </c>
       <c r="E48" s="7">
         <v>1234567891060</v>
@@ -1406,7 +1443,7 @@
         <v>40</v>
       </c>
       <c r="D49">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E49" s="7">
         <v>1234567891061</v>
@@ -1423,7 +1460,7 @@
         <v>36</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E50" s="7">
         <v>1234567891062</v>
@@ -1440,7 +1477,7 @@
         <v>52</v>
       </c>
       <c r="D51">
-        <v>64</v>
+        <v>20000</v>
       </c>
       <c r="E51" s="7">
         <v>1234567891063</v>
@@ -1457,7 +1494,7 @@
         <v>25</v>
       </c>
       <c r="D52">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E52" s="7">
         <v>1234567891064</v>
@@ -1474,7 +1511,7 @@
         <v>41</v>
       </c>
       <c r="D53">
-        <v>66</v>
+        <v>20000</v>
       </c>
       <c r="E53" s="7">
         <v>1234567891065</v>
@@ -1491,13 +1528,13 @@
         <v>42</v>
       </c>
       <c r="D54">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E54" s="7">
         <v>1234567891066</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>8893517190</v>
       </c>
@@ -1508,10 +1545,78 @@
         <v>43</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E55" s="7">
         <v>1234567891067</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="8">
+        <v>8893517191</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56">
+        <v>20000</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1234567891068</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8">
+        <v>8893517192</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <v>20000</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1234567891069</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="8">
+        <v>8893517192</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1234567891070</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="8">
+        <v>8893517193</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>20000</v>
+      </c>
+      <c r="E59" s="7">
+        <v>1234567891071</v>
       </c>
     </row>
   </sheetData>
